--- a/data/plumInfoall.xlsx
+++ b/data/plumInfoall.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\projects\material-database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1762CA60-BD93-4FEE-A0C9-05AD6D578D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C72F949-A4FB-4726-9BA8-9490232226E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6765" yWindow="15" windowWidth="14745" windowHeight="7815" activeTab="2" xr2:uid="{A0BBE691-86F4-4964-8F22-F4C94C854054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A0BBE691-86F4-4964-8F22-F4C94C854054}"/>
   </bookViews>
   <sheets>
     <sheet name="size" sheetId="1" r:id="rId1"/>
     <sheet name="grade" sheetId="3" r:id="rId2"/>
-    <sheet name="fitting" sheetId="2" r:id="rId3"/>
+    <sheet name="type" sheetId="5" r:id="rId3"/>
     <sheet name="brand" sheetId="4" r:id="rId4"/>
+    <sheet name="fitting" sheetId="2" r:id="rId5"/>
+    <sheet name="fittingInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="185">
   <si>
     <t>20mm</t>
   </si>
@@ -324,27 +348,12 @@
     <t>Irrigation Pipe SS</t>
   </si>
   <si>
-    <t>Drainage (special) SS</t>
-  </si>
-  <si>
     <t>Tube Well Pipe SS</t>
   </si>
   <si>
     <t>plumGrade</t>
   </si>
   <si>
-    <t>PNT 11</t>
-  </si>
-  <si>
-    <t>PNT 14</t>
-  </si>
-  <si>
-    <t>PNT 7</t>
-  </si>
-  <si>
-    <t>CLASS 4.0 SS</t>
-  </si>
-  <si>
     <t>plumBrand</t>
   </si>
   <si>
@@ -355,6 +364,258 @@
   </si>
   <si>
     <t>National</t>
+  </si>
+  <si>
+    <t>uPVC PNT 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uPVC PNT 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uPVC PNT 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uPVC CLASS 4.0 SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uPVCCLASS 2.5 SS</t>
+  </si>
+  <si>
+    <t>uPVC Drainage (special) SS</t>
+  </si>
+  <si>
+    <t>CPVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLS 147:2013 </t>
+  </si>
+  <si>
+    <t>uPVC PNT 14 - Fitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uPVC PNT 11 - Fitting</t>
+  </si>
+  <si>
+    <t>SLS 659:2015</t>
+  </si>
+  <si>
+    <t>SLS 1286</t>
+  </si>
+  <si>
+    <t>SLS 1325</t>
+  </si>
+  <si>
+    <t>uPVC Drainage - fittings</t>
+  </si>
+  <si>
+    <t>IS : 15778</t>
+  </si>
+  <si>
+    <t>Non-Type</t>
+  </si>
+  <si>
+    <t>plumtype</t>
+  </si>
+  <si>
+    <t>Pressure pipes</t>
+  </si>
+  <si>
+    <t>Pressure fittings</t>
+  </si>
+  <si>
+    <t>Sewerage and Waste Water Pipes</t>
+  </si>
+  <si>
+    <t>Sewerage and Waste Water Fittings</t>
+  </si>
+  <si>
+    <t>Cpvc Pipes</t>
+  </si>
+  <si>
+    <t>Cpvc Fittings</t>
+  </si>
+  <si>
+    <t>CPVC Faucet Elbow Brass</t>
+  </si>
+  <si>
+    <t>CPVC Step Overhead Bend</t>
+  </si>
+  <si>
+    <t>CPVC elbow 90</t>
+  </si>
+  <si>
+    <t>CPVC elbow 45</t>
+  </si>
+  <si>
+    <t>CPVC Coupling</t>
+  </si>
+  <si>
+    <t>CPVC Faucet Tee Brass</t>
+  </si>
+  <si>
+    <t>CPVC Faucet Tee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPVC Threaded Female adapter Brass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPVC Threaded male adapter Brass </t>
+  </si>
+  <si>
+    <t>CPVC Threaded male adapter</t>
+  </si>
+  <si>
+    <t>CPVC Threaded Coupling Brass</t>
+  </si>
+  <si>
+    <t>CPVC Reducer bush</t>
+  </si>
+  <si>
+    <t>CPVC Union</t>
+  </si>
+  <si>
+    <t>CPVC Threaded Female adapter</t>
+  </si>
+  <si>
+    <t>CPVC Reducer Coupling</t>
+  </si>
+  <si>
+    <t>CPVC cap</t>
+  </si>
+  <si>
+    <t>CPVC Reducer Tee</t>
+  </si>
+  <si>
+    <t>CPVC Cross</t>
+  </si>
+  <si>
+    <t>CPVC Long Radius Bend</t>
+  </si>
+  <si>
+    <t>1/2\"</t>
+  </si>
+  <si>
+    <t>3/4\"</t>
+  </si>
+  <si>
+    <t>1 1/4\"</t>
+  </si>
+  <si>
+    <t>1 1/2\"</t>
+  </si>
+  <si>
+    <t>2 1/2\"</t>
+  </si>
+  <si>
+    <t>1\"</t>
+  </si>
+  <si>
+    <t>2\"</t>
+  </si>
+  <si>
+    <t>3\"</t>
+  </si>
+  <si>
+    <t>4\"</t>
+  </si>
+  <si>
+    <t>3/4\" x 1/2\"</t>
+  </si>
+  <si>
+    <t>1\" x 1/2\"</t>
+  </si>
+  <si>
+    <t>1\" x 3/4\"</t>
+  </si>
+  <si>
+    <t>1 1/4\" x 1/2\"</t>
+  </si>
+  <si>
+    <t>1 1/4\" x 3/4\"</t>
+  </si>
+  <si>
+    <t>1 1/4\" x 1\"</t>
+  </si>
+  <si>
+    <t>1 1/2\" x 1/2\"</t>
+  </si>
+  <si>
+    <t>1 1/2\" x 3/4\"</t>
+  </si>
+  <si>
+    <t>1 1/2\" x 1\"</t>
+  </si>
+  <si>
+    <t>1 1/2\" x 1 1/4\"</t>
+  </si>
+  <si>
+    <t>2\" x 1/2\"</t>
+  </si>
+  <si>
+    <t>2\" x 3/4\"</t>
+  </si>
+  <si>
+    <t>2\" x 1\"</t>
+  </si>
+  <si>
+    <t>2\" x 1 1/4\"</t>
+  </si>
+  <si>
+    <t>2\" x 1 1/2\"</t>
+  </si>
+  <si>
+    <t>3\" x 1 1/4\"</t>
+  </si>
+  <si>
+    <t>3\" x 1 1/2\"</t>
+  </si>
+  <si>
+    <t>3\" x 2\"</t>
+  </si>
+  <si>
+    <t>3\" x 2 1/2\"</t>
+  </si>
+  <si>
+    <t>4\" x 1 1/2\"</t>
+  </si>
+  <si>
+    <t>4\" x 2\"</t>
+  </si>
+  <si>
+    <t>4\" x 2 1/2\"</t>
+  </si>
+  <si>
+    <t>4\" x 3\"</t>
+  </si>
+  <si>
+    <t>plumStandard</t>
+  </si>
+  <si>
+    <t>plumFittingId</t>
+  </si>
+  <si>
+    <t>plumBrandId</t>
+  </si>
+  <si>
+    <t>plumGradeId</t>
+  </si>
+  <si>
+    <t>plumSizeId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uPVC PNT 12.5 - Fitting</t>
+  </si>
+  <si>
+    <t>SLS 659:2016</t>
+  </si>
+  <si>
+    <t>Reducing Faucet Tee Brass</t>
+  </si>
+  <si>
+    <t>Reducing Faucet Socket Brass</t>
+  </si>
+  <si>
+    <t>plumTypeId</t>
   </si>
 </sst>
 </file>
@@ -396,16 +657,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1537CBF8-F71A-411B-9DB0-DEF6645F17DF}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A11" sqref="A11:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,9 +990,14 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -744,8 +1007,11 @@
       <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -755,8 +1021,27 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="str">
+        <f>_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
+        <v>"20mm"</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>_xlfn.CONCAT(""""&amp;E2&amp;"""")</f>
+        <v>"1/2\""</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G33" si="0">_xlfn.CONCAT( "(",D2,", ", F2,")")</f>
+        <v>("20mm", "1/2\"")</v>
+      </c>
+      <c r="H2" t="str" cm="1">
+        <f t="array" ref="H2">_xlfn.CONCAT("INSERT INTO plumsizes (plumSizeImperial,plumSizeMetric) VALUES",(TRANSPOSE(G2:G33)&amp;","))</f>
+        <v>INSERT INTO plumsizes (plumSizeImperial,plumSizeMetric) VALUES("20mm", "1/2\""),("25mm", "3/4\""),("32mm", "1\""),("40mm", "1 1/4\""),("50mm", "1 1/2\""),("63mm", "2\""),("75mm", "2 1/2\""),("90mm", "3\""),("110mm", "4\""),("25mm x 20mm", "3/4\" x 1/2\""),("32mm x 20mm", "1\" x 1/2\""),("32mm x 25mm", "1\" x 3/4\""),("40mm x 20mm", "1 1/4\" x 1/2\""),("40mm x 25mm", "1 1/4\" x 3/4\""),("40mm x 32mm", "1 1/4\" x 1\""),("50mmx 20mm", "1 1/2\" x 1/2\""),("50mm x 25mm", "1 1/2\" x 3/4\""),("50mm x 32mm", "1 1/2\" x 1\""),("50mm x 40mm", "1 1/2\" x 1 1/4\""),("63mm x 20mm", "2\" x 1/2\""),("63mm x 25mm", "2\" x 3/4\""),("63mm x 32mm", "2\" x 1\""),("63mm x 40mm", "2\" x 1 1/4\""),("63mm x 50mm", "2\" x 1 1/2\""),("90mm x 40mm", "3\" x 1 1/4\""),("90mm x 50mm", "3\" x 1 1/2\""),("90mm x 63mm", "3\" x 2\""),("90mm x 75mm", "3\" x 2 1/2\""),("110mm x 50mm", "4\" x 1 1/2\""),("110mm x 63mm", "4\" x 2\""),("110mm x 75mm", "4\" x 2 1/2\""),("110mm x 90mm", "4\" x 3\""),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -766,8 +1051,23 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D33" si="1">_xlfn.CONCAT(""""&amp;B3&amp;"""")</f>
+        <v>"25mm"</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F33" si="2">_xlfn.CONCAT(""""&amp;E3&amp;"""")</f>
+        <v>"3/4\""</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>("25mm", "3/4\"")</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -777,8 +1077,23 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"32mm"</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1\""</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>("32mm", "1\"")</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -788,8 +1103,23 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"40mm"</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1 1/4\""</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>("40mm", "1 1/4\"")</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -799,8 +1129,23 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"50mm"</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1 1/2\""</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>("50mm", "1 1/2\"")</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -810,8 +1155,23 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"63mm"</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"2\""</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>("63mm", "2\"")</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -821,8 +1181,23 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"75mm"</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"2 1/2\""</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>("75mm", "2 1/2\"")</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -832,8 +1207,23 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"90mm"</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"3\""</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>("90mm", "3\"")</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -843,8 +1233,23 @@
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"110mm"</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"4\""</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>("110mm", "4\"")</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -854,8 +1259,23 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"25mm x 20mm"</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"3/4\" x 1/2\""</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>("25mm x 20mm", "3/4\" x 1/2\"")</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -865,8 +1285,23 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"32mm x 20mm"</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1\" x 1/2\""</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>("32mm x 20mm", "1\" x 1/2\"")</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -876,8 +1311,23 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"32mm x 25mm"</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1\" x 3/4\""</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>("32mm x 25mm", "1\" x 3/4\"")</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -887,8 +1337,23 @@
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"40mm x 20mm"</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1 1/4\" x 1/2\""</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>("40mm x 20mm", "1 1/4\" x 1/2\"")</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -898,8 +1363,23 @@
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"40mm x 25mm"</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1 1/4\" x 3/4\""</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>("40mm x 25mm", "1 1/4\" x 3/4\"")</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -909,8 +1389,23 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"40mm x 32mm"</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1 1/4\" x 1\""</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>("40mm x 32mm", "1 1/4\" x 1\"")</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -920,8 +1415,23 @@
       <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"50mmx 20mm"</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1 1/2\" x 1/2\""</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>("50mmx 20mm", "1 1/2\" x 1/2\"")</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -931,8 +1441,23 @@
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"50mm x 25mm"</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1 1/2\" x 3/4\""</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>("50mm x 25mm", "1 1/2\" x 3/4\"")</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -942,8 +1467,23 @@
       <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"50mm x 32mm"</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1 1/2\" x 1\""</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>("50mm x 32mm", "1 1/2\" x 1\"")</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -953,8 +1493,23 @@
       <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"50mm x 40mm"</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"1 1/2\" x 1 1/4\""</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>("50mm x 40mm", "1 1/2\" x 1 1/4\"")</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -964,8 +1519,23 @@
       <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"63mm x 20mm"</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"2\" x 1/2\""</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>("63mm x 20mm", "2\" x 1/2\"")</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -975,8 +1545,23 @@
       <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"63mm x 25mm"</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"2\" x 3/4\""</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>("63mm x 25mm", "2\" x 3/4\"")</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -986,8 +1571,23 @@
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"63mm x 32mm"</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"2\" x 1\""</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>("63mm x 32mm", "2\" x 1\"")</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -997,8 +1597,23 @@
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"63mm x 40mm"</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"2\" x 1 1/4\""</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>("63mm x 40mm", "2\" x 1 1/4\"")</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1008,8 +1623,23 @@
       <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"63mm x 50mm"</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"2\" x 1 1/2\""</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>("63mm x 50mm", "2\" x 1 1/2\"")</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1019,8 +1649,23 @@
       <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"90mm x 40mm"</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"3\" x 1 1/4\""</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>("90mm x 40mm", "3\" x 1 1/4\"")</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1030,8 +1675,23 @@
       <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"90mm x 50mm"</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"3\" x 1 1/2\""</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>("90mm x 50mm", "3\" x 1 1/2\"")</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1041,8 +1701,23 @@
       <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"90mm x 63mm"</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"3\" x 2\""</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>("90mm x 63mm", "3\" x 2\"")</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1052,8 +1727,23 @@
       <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"90mm x 75mm"</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"3\" x 2 1/2\""</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>("90mm x 75mm", "3\" x 2 1/2\"")</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1063,8 +1753,23 @@
       <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"110mm x 50mm"</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"4\" x 1 1/2\""</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>("110mm x 50mm", "4\" x 1 1/2\"")</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1074,8 +1779,23 @@
       <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"110mm x 63mm"</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"4\" x 2\""</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>("110mm x 63mm", "4\" x 2\"")</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1085,8 +1805,23 @@
       <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"110mm x 75mm"</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"4\" x 2 1/2\""</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>("110mm x 75mm", "4\" x 2 1/2\"")</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1095,6 +1830,21 @@
       </c>
       <c r="C33" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"110mm x 90mm"</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"4\" x 3\""</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>("110mm x 90mm", "4\" x 3\"")</v>
       </c>
     </row>
   </sheetData>
@@ -1104,316 +1854,465 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B7B677-6731-4EA9-B8E3-96DD5E4F6E11}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
+        <v>"uPVC PNT 14"</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>_xlfn.CONCAT(""""&amp;C2&amp;"""")</f>
+        <v>"SLS 147:2013 "</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT( "(",D2,", ", E2,")")</f>
+        <v>("uPVC PNT 14", "SLS 147:2013 ")</v>
+      </c>
+      <c r="G2" t="str" cm="1">
+        <f t="array" ref="G2">_xlfn.CONCAT("INSERT INTO plumgrades (plumGrade,plumStandard) VALUES",(TRANSPOSE(F2:F14)&amp;","))</f>
+        <v>INSERT INTO plumgrades (plumGrade,plumStandard) VALUES("uPVC PNT 14", "SLS 147:2013 "),("uPVC PNT 14 - Fitting", "SLS 659:2015"),(" uPVC PNT 11", "SLS 147:2013 "),(" uPVC PNT 11 - Fitting", "SLS 659:2015"),(" uPVC PNT 12.5 - Fitting", "SLS 659:2016"),(" uPVC PNT 7", "SLS 147:2013 "),(" uPVC CLASS 4.0 SS", "SLS 1325"),(" uPVCCLASS 2.5 SS", "SLS 1325"),("uPVC Drainage - fittings", "SLS 1325"),("uPVC Drainage (special) SS", "SLS 1286"),("Tube Well Pipe SS", "Non-Type"),("Irrigation Pipe SS", "Non-Type"),("CPVC", "IS : 15778"),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D14" si="0">_xlfn.CONCAT(""""&amp;B3&amp;"""")</f>
+        <v>"uPVC PNT 14 - Fitting"</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E14" si="1">_xlfn.CONCAT(""""&amp;C3&amp;"""")</f>
+        <v>"SLS 659:2015"</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F14" si="2">_xlfn.CONCAT( "(",D3,", ", E3,")")</f>
+        <v>("uPVC PNT 14 - Fitting", "SLS 659:2015")</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>" uPVC PNT 11"</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLS 147:2013 "</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>(" uPVC PNT 11", "SLS 147:2013 ")</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>" uPVC PNT 11 - Fitting"</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLS 659:2015"</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>(" uPVC PNT 11 - Fitting", "SLS 659:2015")</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ref="D6" si="3">_xlfn.CONCAT(""""&amp;B6&amp;"""")</f>
+        <v>" uPVC PNT 12.5 - Fitting"</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" ref="E6" si="4">_xlfn.CONCAT(""""&amp;C6&amp;"""")</f>
+        <v>"SLS 659:2016"</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6" si="5">_xlfn.CONCAT( "(",D6,", ", E6,")")</f>
+        <v>(" uPVC PNT 12.5 - Fitting", "SLS 659:2016")</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>" uPVC PNT 7"</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLS 147:2013 "</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>(" uPVC PNT 7", "SLS 147:2013 ")</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>" uPVC CLASS 4.0 SS"</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLS 1325"</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>(" uPVC CLASS 4.0 SS", "SLS 1325")</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>" uPVCCLASS 2.5 SS"</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLS 1325"</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>(" uPVCCLASS 2.5 SS", "SLS 1325")</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"uPVC Drainage - fittings"</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLS 1325"</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>("uPVC Drainage - fittings", "SLS 1325")</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"uPVC Drainage (special) SS"</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLS 1286"</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>("uPVC Drainage (special) SS", "SLS 1286")</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Tube Well Pipe SS"</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Non-Type"</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>("Tube Well Pipe SS", "Non-Type")</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Irrigation Pipe SS"</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Non-Type"</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>("Irrigation Pipe SS", "Non-Type")</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC"</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"IS : 15778"</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>("CPVC", "IS : 15778")</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD89E6EC-8F15-4548-81F8-F39FFF15A66D}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7CEA8D-C192-4780-A548-CB79ECEB5E3C}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
+        <v>"Pressure pipes"</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>_xlfn.CONCAT( "(",C2,")")</f>
+        <v>("Pressure pipes")</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2">_xlfn.CONCAT("INSERT INTO plumtypes (plumType) VALUES",(TRANSPOSE(D2:D7)&amp;","))</f>
+        <v>INSERT INTO plumtypes (plumType) VALUES("Pressure pipes"),("Pressure fittings"),("Sewerage and Waste Water Pipes"),("Sewerage and Waste Water Fittings"),("Cpvc Pipes"),("Cpvc Fittings"),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C7" si="0">_xlfn.CONCAT(""""&amp;B3&amp;"""")</f>
+        <v>"Pressure fittings"</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D7" si="1">_xlfn.CONCAT( "(",C3,")")</f>
+        <v>("Pressure fittings")</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sewerage and Waste Water Pipes"</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Sewerage and Waste Water Pipes")</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sewerage and Waste Water Fittings"</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Sewerage and Waste Water Fittings")</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cpvc Pipes"</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Cpvc Pipes")</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>92</v>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cpvc Fittings"</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Cpvc Fittings")</v>
       </c>
     </row>
   </sheetData>
@@ -1423,47 +2322,4199 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1265961C-09AB-46AB-A88D-783FF09DB5DB}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
+        <v>"Slon"</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>_xlfn.CONCAT( "(",C2,")")</f>
+        <v>("Slon")</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2">_xlfn.CONCAT("INSERT INTO plumfittings (plumFittings) VALUES",(TRANSPOSE(D2:D4)&amp;","))</f>
+        <v>INSERT INTO plumfittings (plumFittings) VALUES("Slon"),("Anton"),("National"),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C4" si="0">_xlfn.CONCAT(""""&amp;B3&amp;"""")</f>
+        <v>"Anton"</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D4" si="1">_xlfn.CONCAT( "(",C3,")")</f>
+        <v>("Anton")</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"National"</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("National")</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD89E6EC-8F15-4548-81F8-F39FFF15A66D}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
+        <v>"Socket"</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>_xlfn.CONCAT( "(",C2,")")</f>
+        <v>("Socket")</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2">_xlfn.CONCAT("INSERT INTO plumfittings (plumFittings) VALUES",(TRANSPOSE(D2:D48)&amp;","))</f>
+        <v>INSERT INTO plumfittings (plumFittings) VALUES("Socket"),("Valve Socket"),("Faucet Socket"),("Elbow"),("Equal Tee"),("Bend"),("Cap"),("Saddle(Clip)"),("Bend 45"),("Reducing Socket"),("Reducing Tee"),("Reducing Faucet Elbow"),("Reducing Faucet Tee"),("Faucet Elbow"),("Faucet Tee"),("Faucet Socket Brass"),("Faucet Elbow Brass"),("Faucet Tee Brass"),("Reducing Faucet Tee Brass"),("Reducing Faucet Socket Brass"),("Male Thread Endcap"),("Swept Tee"),("Single Y"),("Door Bend 45"),("Door Bend"),("Door Tee"),("Swept Door Tee"),("Single Door Y"),("CPVC Faucet Elbow Brass"),("CPVC Step Overhead Bend"),("CPVC elbow 90"),("CPVC Threaded Female adapter Brass "),("CPVC elbow 45"),("CPVC Coupling"),("CPVC Faucet Tee Brass"),("CPVC Faucet Tee"),("CPVC Threaded male adapter Brass "),("CPVC Threaded male adapter"),("CPVC Threaded Coupling Brass"),("CPVC Reducer bush"),("CPVC Union"),("CPVC Threaded Female adapter"),("CPVC Reducer Coupling"),("CPVC cap"),("CPVC Reducer Tee"),("CPVC Cross"),("CPVC Long Radius Bend"),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C48" si="0">_xlfn.CONCAT(""""&amp;B3&amp;"""")</f>
+        <v>"Valve Socket"</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D48" si="1">_xlfn.CONCAT( "(",C3,")")</f>
+        <v>("Valve Socket")</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Faucet Socket"</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Faucet Socket")</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Elbow"</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Elbow")</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Equal Tee"</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Equal Tee")</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bend"</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Bend")</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cap"</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Cap")</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Saddle(Clip)"</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Saddle(Clip)")</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bend 45"</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Bend 45")</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Reducing Socket"</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Reducing Socket")</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Reducing Tee"</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Reducing Tee")</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Reducing Faucet Elbow"</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Reducing Faucet Elbow")</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Reducing Faucet Tee"</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Reducing Faucet Tee")</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Faucet Elbow"</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Faucet Elbow")</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Faucet Tee"</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Faucet Tee")</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Faucet Socket Brass"</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Faucet Socket Brass")</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Faucet Elbow Brass"</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Faucet Elbow Brass")</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Faucet Tee Brass"</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Faucet Tee Brass")</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" ref="C20" si="2">_xlfn.CONCAT(""""&amp;B20&amp;"""")</f>
+        <v>"Reducing Faucet Tee Brass"</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" ref="D20" si="3">_xlfn.CONCAT( "(",C20,")")</f>
+        <v>("Reducing Faucet Tee Brass")</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" ref="C21" si="4">_xlfn.CONCAT(""""&amp;B21&amp;"""")</f>
+        <v>"Reducing Faucet Socket Brass"</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" ref="D21" si="5">_xlfn.CONCAT( "(",C21,")")</f>
+        <v>("Reducing Faucet Socket Brass")</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Male Thread Endcap"</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Male Thread Endcap")</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Swept Tee"</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Swept Tee")</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Single Y"</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Single Y")</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Door Bend 45"</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Door Bend 45")</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Door Bend"</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Door Bend")</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Door Tee"</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Door Tee")</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Swept Door Tee"</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Swept Door Tee")</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Single Door Y"</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("Single Door Y")</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Faucet Elbow Brass"</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Faucet Elbow Brass")</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Step Overhead Bend"</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Step Overhead Bend")</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC elbow 90"</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC elbow 90")</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Threaded Female adapter Brass "</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Threaded Female adapter Brass ")</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC elbow 45"</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC elbow 45")</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Coupling"</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Coupling")</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Faucet Tee Brass"</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Faucet Tee Brass")</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Faucet Tee"</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Faucet Tee")</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Threaded male adapter Brass "</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Threaded male adapter Brass ")</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Threaded male adapter"</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Threaded male adapter")</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Threaded Coupling Brass"</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Threaded Coupling Brass")</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Reducer bush"</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Reducer bush")</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Union"</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Union")</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Threaded Female adapter"</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Threaded Female adapter")</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Reducer Coupling"</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Reducer Coupling")</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC cap"</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC cap")</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Reducer Tee"</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Reducer Tee")</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Cross"</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Cross")</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPVC Long Radius Bend"</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>("CPVC Long Radius Bend")</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B51A4-0C2E-4883-BC0A-528D5C113E23}">
+  <dimension ref="A1:H138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT( "(",B2,", ", C2,", ", D2,", ", E2,", ", F2,")")</f>
+        <v>(1, 1, 2, 1, 2)</v>
+      </c>
+      <c r="H2" t="str" cm="1">
+        <f t="array" ref="H2">_xlfn.CONCAT("INSERT INTO plumfittinginfos (plumFittingId,plumBrandId,plumGradeId,plumSizeId,plumTypeId) VALUES",(TRANSPOSE(G2:G138)&amp;","))</f>
+        <v>INSERT INTO plumfittinginfos (plumFittingId,plumBrandId,plumGradeId,plumSizeId,plumTypeId) VALUES(1, 1, 2, 1, 2),(1, 1, 4, 2, 2),(1, 1, 4, 3, 2),(1, 1, 4, 4, 2),(1, 1, 4, 5, 2),(1, 1, 4, 6, 2),(1, 1, 4, 7, 2),(1, 1, 4, 8, 2),(1, 1, 4, 9, 2),(2, 1, 2, 1, 2),(2, 1, 4, 2, 2),(2, 1, 4, 3, 2),(2, 1, 4, 4, 2),(2, 1, 4, 5, 2),(2, 1, 4, 6, 2),(2, 1, 4, 7, 2),(2, 1, 4, 8, 2),(2, 1, 4, 9, 2),(3, 1, 2, 1, 2),(3, 1, 4, 2, 2),(3, 1, 4, 3, 2),(3, 1, 4, 4, 2),(3, 1, 4, 5, 2),(3, 1, 4, 6, 2),(3, 1, 4, 7, 2),(3, 1, 4, 8, 2),(3, 1, 4, 9, 2),(4, 1, 2, 1, 2),(4, 1, 4, 2, 2),(4, 1, 4, 3, 2),(4, 1, 4, 4, 2),(4, 1, 4, 5, 2),(4, 1, 4, 6, 2),(4, 1, 4, 7, 2),(4, 1, 4, 8, 2),(4, 1, 4, 9, 2),(5, 1, 2, 1, 2),(5, 1, 4, 2, 2),(5, 1, 4, 3, 2),(5, 1, 4, 4, 2),(5, 1, 4, 5, 2),(5, 1, 4, 6, 2),(5, 1, 4, 7, 2),(5, 1, 4, 8, 2),(5, 1, 4, 9, 2),(6, 1, 2, 1, 2),(6, 1, 4, 2, 2),(6, 1, 4, 3, 2),(6, 1, 4, 4, 2),(6, 1, 4, 5, 2),(6, 1, 4, 6, 2),(6, 1, 4, 7, 2),(6, 1, 4, 8, 2),(6, 1, 4, 9, 2),(7, 1, 2, 1, 2),(7, 1, 4, 2, 2),(7, 1, 4, 3, 2),(7, 1, 4, 4, 2),(7, 1, 4, 5, 2),(7, 1, 4, 6, 2),(7, 1, 4, 7, 2),(7, 1, 4, 8, 2),(7, 1, 4, 9, 2),(8, 1, 2, 1, 2),(8, 1, 4, 2, 2),(8, 1, 4, 3, 2),(8, 1, 4, 4, 2),(8, 1, 4, 5, 2),(8, 1, 4, 6, 2),(8, 1, 4, 7, 2),(8, 1, 4, 8, 2),(8, 1, 4, 9, 2),(9, 1, 2, 1, 2),(9, 1, 4, 2, 2),(9, 1, 4, 3, 2),(9, 1, 4, 4, 2),(9, 1, 4, 5, 2),(9, 1, 4, 6, 2),(10, 1, 4, 10, 2),(10, 1, 4, 11, 2),(10, 1, 4, 12, 2),(10, 1, 4, 13, 2),(10, 1, 4, 14, 2),(10, 1, 4, 15, 2),(10, 1, 4, 16, 2),(10, 1, 4, 17, 2),(10, 1, 4, 18, 2),(10, 1, 4, 19, 2),(10, 1, 4, 20, 2),(10, 1, 4, 21, 2),(10, 1, 4, 22, 2),(10, 1, 4, 23, 2),(10, 1, 4, 24, 2),(10, 1, 4, 25, 2),(10, 1, 4, 26, 2),(10, 1, 4, 27, 2),(10, 1, 4, 28, 2),(10, 1, 4, 29, 2),(10, 1, 4, 30, 2),(10, 1, 4, 31, 2),(10, 1, 4, 32, 2),(11, 1, 4, 10, 2),(11, 1, 4, 11, 2),(11, 1, 4, 12, 2),(11, 1, 4, 13, 2),(11, 1, 4, 14, 2),(11, 1, 4, 15, 2),(11, 1, 4, 16, 2),(11, 1, 4, 17, 2),(11, 1, 4, 18, 2),(11, 1, 4, 19, 2),(11, 1, 4, 20, 2),(11, 1, 4, 21, 2),(11, 1, 4, 22, 2),(11, 1, 4, 23, 2),(11, 1, 4, 24, 2),(11, 1, 4, 25, 2),(11, 1, 4, 26, 2),(11, 1, 4, 27, 2),(11, 1, 4, 28, 2),(11, 1, 4, 29, 2),(11, 1, 4, 30, 2),(11, 1, 4, 31, 2),(11, 1, 4, 32, 2),(12, 1, 4, 10, 2),(13, 1, 4, 11, 2),(14, 1, 2, 1, 2),(15, 1, 2, 1, 2),(16, 1, 2, 1, 2),(17, 1, 2, 1, 2),(18, 1, 2, 1, 2),(19, 1, 5, 10, 2),(19, 1, 5, 11, 2),(20, 1, 5, 10, 2),(21, 1, 2, 1, 2),(21, 1, 4, 2, 2),(21, 1, 4, 3, 2),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">_xlfn.CONCAT( "(",B3,", ", C3,", ", D3,", ", E3,", ", F3,")")</f>
+        <v>(1, 1, 4, 2, 2)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 1, 4, 3, 2)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 1, 4, 4, 2)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 1, 4, 5, 2)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 1, 4, 6, 2)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 1, 4, 7, 2)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 1, 4, 8, 2)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 1, 4, 9, 2)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 1, 4, 2, 2)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 1, 4, 3, 2)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 1, 4, 4, 2)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 1, 4, 5, 2)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 1, 4, 6, 2)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 1, 4, 7, 2)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 1, 4, 8, 2)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 1, 4, 9, 2)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 1, 4, 2, 2)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 1, 4, 3, 2)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 1, 4, 4, 2)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 1, 4, 5, 2)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 1, 4, 6, 2)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 1, 4, 7, 2)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 1, 4, 8, 2)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 1, 4, 9, 2)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 1, 4, 2, 2)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 1, 4, 3, 2)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 1, 4, 4, 2)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 1, 4, 5, 2)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 1, 4, 6, 2)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 1, 4, 7, 2)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 1, 4, 8, 2)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 1, 4, 9, 2)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 1, 4, 2, 2)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 1, 4, 3, 2)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 1, 4, 4, 2)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 1, 4, 5, 2)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 1, 4, 6, 2)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 1, 4, 7, 2)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 1, 4, 8, 2)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 1, 4, 9, 2)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 1, 4, 2, 2)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 1, 4, 3, 2)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 1, 4, 4, 2)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 1, 4, 5, 2)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 1, 4, 6, 2)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 1, 4, 7, 2)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 1, 4, 8, 2)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 1, 4, 9, 2)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 1, 4, 2, 2)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 1, 4, 3, 2)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 1, 4, 4, 2)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 1, 4, 5, 2)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 1, 4, 6, 2)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 1, 4, 7, 2)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 1, 4, 8, 2)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 1, 4, 9, 2)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 1, 4, 2, 2)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="1">_xlfn.CONCAT( "(",B67,", ", C67,", ", D67,", ", E67,", ", F67,")")</f>
+        <v>(8, 1, 4, 3, 2)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>(8, 1, 4, 4, 2)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>(8, 1, 4, 5, 2)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>(8, 1, 4, 6, 2)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>(8, 1, 4, 7, 2)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>(8, 1, 4, 8, 2)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>(8, 1, 4, 9, 2)</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>(9, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>(9, 1, 4, 2, 2)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>(9, 1, 4, 3, 2)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>(9, 1, 4, 4, 2)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>(9, 1, 4, 5, 2)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>(9, 1, 4, 6, 2)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 10, 2)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 11, 2)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>12</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 12, 2)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>13</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 13, 2)</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>14</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 14, 2)</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>15</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 15, 2)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>16</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 16, 2)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>17</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 17, 2)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 18, 2)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>19</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 19, 2)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>20</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 20, 2)</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>21</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 21, 2)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>22</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 22, 2)</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>23</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 23, 2)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>24</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 24, 2)</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>25</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 25, 2)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>26</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 26, 2)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>27</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 27, 2)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>28</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 28, 2)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>29</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 29, 2)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>30</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 30, 2)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>31</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 31, 2)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>32</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, 1, 4, 32, 2)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 10, 2)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>11</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 11, 2)</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>12</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 12, 2)</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
+      </c>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>13</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 13, 2)</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>11</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107">
+        <v>14</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 14, 2)</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>15</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 15, 2)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>16</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 16, 2)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>17</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 17, 2)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 18, 2)</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>19</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 19, 2)</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>20</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 20, 2)</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>21</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 21, 2)</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>22</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 22, 2)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>23</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 23, 2)</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>11</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>24</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 24, 2)</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>25</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 25, 2)</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>11</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>26</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 26, 2)</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>27</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 27, 2)</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>11</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>28</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 28, 2)</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>29</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 29, 2)</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>11</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>30</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 30, 2)</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>11</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>31</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 31, 2)</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>11</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>32</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, 1, 4, 32, 2)</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v>(12, 1, 4, 10, 2)</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127">
+        <v>11</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v>(13, 1, 4, 11, 2)</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v>(14, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v>(15, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>16</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="1"/>
+        <v>(16, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>17</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G138" si="2">_xlfn.CONCAT( "(",B131,", ", C131,", ", D131,", ", E131,", ", F131,")")</f>
+        <v>(17, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>18</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="2"/>
+        <v>(18, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>19</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="2"/>
+        <v>(19, 1, 5, 10, 2)</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>19</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>11</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v>(19, 1, 5, 11, 2)</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>20</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="2"/>
+        <v>(20, 1, 5, 10, 2)</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>21</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="2"/>
+        <v>(21, 1, 2, 1, 2)</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>21</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="2"/>
+        <v>(21, 1, 4, 2, 2)</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>21</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="2"/>
+        <v>(21, 1, 4, 3, 2)</v>
       </c>
     </row>
   </sheetData>

--- a/data/plumInfoall.xlsx
+++ b/data/plumInfoall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\projects\material-database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C72F949-A4FB-4726-9BA8-9490232226E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607AA280-37EF-4C98-A6D9-A99858C80238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A0BBE691-86F4-4964-8F22-F4C94C854054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{A0BBE691-86F4-4964-8F22-F4C94C854054}"/>
   </bookViews>
   <sheets>
     <sheet name="size" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="brand" sheetId="4" r:id="rId4"/>
     <sheet name="fitting" sheetId="2" r:id="rId5"/>
     <sheet name="fittingInfo" sheetId="6" r:id="rId6"/>
+    <sheet name="plumTypeEnd" sheetId="8" r:id="rId7"/>
+    <sheet name="pipeinfo" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="193">
   <si>
     <t>20mm</t>
   </si>
@@ -375,12 +377,6 @@
     <t xml:space="preserve"> uPVC PNT 7</t>
   </si>
   <si>
-    <t xml:space="preserve"> uPVC CLASS 4.0 SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> uPVCCLASS 2.5 SS</t>
-  </si>
-  <si>
     <t>uPVC Drainage (special) SS</t>
   </si>
   <si>
@@ -616,6 +612,36 @@
   </si>
   <si>
     <t>plumTypeId</t>
+  </si>
+  <si>
+    <t>PlumPipeLengthMetric</t>
+  </si>
+  <si>
+    <t>plumPipeLengthImperial</t>
+  </si>
+  <si>
+    <t>plumPipeEndType</t>
+  </si>
+  <si>
+    <t>PE - Plain Ended</t>
+  </si>
+  <si>
+    <t>SS - Solvent Socketed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uPVC CLASS 4.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uPVCCLASS 2.5</t>
+  </si>
+  <si>
+    <t>160mm</t>
+  </si>
+  <si>
+    <t>6"</t>
+  </si>
+  <si>
+    <t>6\"</t>
   </si>
 </sst>
 </file>
@@ -979,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1537CBF8-F71A-411B-9DB0-DEF6645F17DF}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A33"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1052,7 @@
         <v>"20mm"</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.CONCAT(""""&amp;E2&amp;"""")</f>
@@ -1037,8 +1063,8 @@
         <v>("20mm", "1/2\"")</v>
       </c>
       <c r="H2" t="str" cm="1">
-        <f t="array" ref="H2">_xlfn.CONCAT("INSERT INTO plumsizes (plumSizeImperial,plumSizeMetric) VALUES",(TRANSPOSE(G2:G33)&amp;","))</f>
-        <v>INSERT INTO plumsizes (plumSizeImperial,plumSizeMetric) VALUES("20mm", "1/2\""),("25mm", "3/4\""),("32mm", "1\""),("40mm", "1 1/4\""),("50mm", "1 1/2\""),("63mm", "2\""),("75mm", "2 1/2\""),("90mm", "3\""),("110mm", "4\""),("25mm x 20mm", "3/4\" x 1/2\""),("32mm x 20mm", "1\" x 1/2\""),("32mm x 25mm", "1\" x 3/4\""),("40mm x 20mm", "1 1/4\" x 1/2\""),("40mm x 25mm", "1 1/4\" x 3/4\""),("40mm x 32mm", "1 1/4\" x 1\""),("50mmx 20mm", "1 1/2\" x 1/2\""),("50mm x 25mm", "1 1/2\" x 3/4\""),("50mm x 32mm", "1 1/2\" x 1\""),("50mm x 40mm", "1 1/2\" x 1 1/4\""),("63mm x 20mm", "2\" x 1/2\""),("63mm x 25mm", "2\" x 3/4\""),("63mm x 32mm", "2\" x 1\""),("63mm x 40mm", "2\" x 1 1/4\""),("63mm x 50mm", "2\" x 1 1/2\""),("90mm x 40mm", "3\" x 1 1/4\""),("90mm x 50mm", "3\" x 1 1/2\""),("90mm x 63mm", "3\" x 2\""),("90mm x 75mm", "3\" x 2 1/2\""),("110mm x 50mm", "4\" x 1 1/2\""),("110mm x 63mm", "4\" x 2\""),("110mm x 75mm", "4\" x 2 1/2\""),("110mm x 90mm", "4\" x 3\""),</v>
+        <f t="array" ref="H2">_xlfn.CONCAT("INSERT INTO plumsizes (plumSizeImperial,plumSizeMetric) VALUES",(TRANSPOSE(G2:G34)&amp;","))</f>
+        <v>INSERT INTO plumsizes (plumSizeImperial,plumSizeMetric) VALUES("20mm", "1/2\""),("25mm", "3/4\""),("32mm", "1\""),("40mm", "1 1/4\""),("50mm", "1 1/2\""),("63mm", "2\""),("75mm", "2 1/2\""),("90mm", "3\""),("110mm", "4\""),("25mm x 20mm", "3/4\" x 1/2\""),("32mm x 20mm", "1\" x 1/2\""),("32mm x 25mm", "1\" x 3/4\""),("40mm x 20mm", "1 1/4\" x 1/2\""),("40mm x 25mm", "1 1/4\" x 3/4\""),("40mm x 32mm", "1 1/4\" x 1\""),("50mmx 20mm", "1 1/2\" x 1/2\""),("50mm x 25mm", "1 1/2\" x 3/4\""),("50mm x 32mm", "1 1/2\" x 1\""),("50mm x 40mm", "1 1/2\" x 1 1/4\""),("63mm x 20mm", "2\" x 1/2\""),("63mm x 25mm", "2\" x 3/4\""),("63mm x 32mm", "2\" x 1\""),("63mm x 40mm", "2\" x 1 1/4\""),("63mm x 50mm", "2\" x 1 1/2\""),("90mm x 40mm", "3\" x 1 1/4\""),("90mm x 50mm", "3\" x 1 1/2\""),("90mm x 63mm", "3\" x 2\""),("90mm x 75mm", "3\" x 2 1/2\""),("110mm x 50mm", "4\" x 1 1/2\""),("110mm x 63mm", "4\" x 2\""),("110mm x 75mm", "4\" x 2 1/2\""),("110mm x 90mm", "4\" x 3\""),("160mm", "6\""),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1056,7 +1082,7 @@
         <v>"25mm"</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F33" si="2">_xlfn.CONCAT(""""&amp;E3&amp;"""")</f>
@@ -1082,7 +1108,7 @@
         <v>"32mm"</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1108,7 +1134,7 @@
         <v>"40mm"</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1134,7 +1160,7 @@
         <v>"50mm"</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1160,7 +1186,7 @@
         <v>"63mm"</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1186,7 +1212,7 @@
         <v>"75mm"</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1212,7 +1238,7 @@
         <v>"90mm"</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1238,7 +1264,7 @@
         <v>"110mm"</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1264,7 +1290,7 @@
         <v>"25mm x 20mm"</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1290,7 +1316,7 @@
         <v>"32mm x 20mm"</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1316,7 +1342,7 @@
         <v>"32mm x 25mm"</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1342,7 +1368,7 @@
         <v>"40mm x 20mm"</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1368,7 +1394,7 @@
         <v>"40mm x 25mm"</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1394,7 +1420,7 @@
         <v>"40mm x 32mm"</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1420,7 +1446,7 @@
         <v>"50mmx 20mm"</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1446,7 +1472,7 @@
         <v>"50mm x 25mm"</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1472,7 +1498,7 @@
         <v>"50mm x 32mm"</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1498,7 +1524,7 @@
         <v>"50mm x 40mm"</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1524,7 +1550,7 @@
         <v>"63mm x 20mm"</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1550,7 +1576,7 @@
         <v>"63mm x 25mm"</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1576,7 +1602,7 @@
         <v>"63mm x 32mm"</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1602,7 +1628,7 @@
         <v>"63mm x 40mm"</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1628,7 +1654,7 @@
         <v>"63mm x 50mm"</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1654,7 +1680,7 @@
         <v>"90mm x 40mm"</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1680,7 +1706,7 @@
         <v>"90mm x 50mm"</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1706,7 +1732,7 @@
         <v>"90mm x 63mm"</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1732,7 +1758,7 @@
         <v>"90mm x 75mm"</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1758,7 +1784,7 @@
         <v>"110mm x 50mm"</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1784,7 +1810,7 @@
         <v>"110mm x 63mm"</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1810,7 +1836,7 @@
         <v>"110mm x 75mm"</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1836,7 +1862,7 @@
         <v>"110mm x 90mm"</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1845,6 +1871,32 @@
       <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v>("110mm x 90mm", "4\" x 3\"")</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" ref="D34" si="3">_xlfn.CONCAT(""""&amp;B34&amp;"""")</f>
+        <v>"160mm"</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" ref="F34" si="4">_xlfn.CONCAT(""""&amp;E34&amp;"""")</f>
+        <v>"6\""</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" ref="G34" si="5">_xlfn.CONCAT( "(",D34,", ", F34,")")</f>
+        <v>("160mm", "6\"")</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1909,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1931,7 @@
         <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1890,7 +1942,7 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
@@ -1906,7 +1958,7 @@
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2">_xlfn.CONCAT("INSERT INTO plumgrades (plumGrade,plumStandard) VALUES",(TRANSPOSE(F2:F14)&amp;","))</f>
-        <v>INSERT INTO plumgrades (plumGrade,plumStandard) VALUES("uPVC PNT 14", "SLS 147:2013 "),("uPVC PNT 14 - Fitting", "SLS 659:2015"),(" uPVC PNT 11", "SLS 147:2013 "),(" uPVC PNT 11 - Fitting", "SLS 659:2015"),(" uPVC PNT 12.5 - Fitting", "SLS 659:2016"),(" uPVC PNT 7", "SLS 147:2013 "),(" uPVC CLASS 4.0 SS", "SLS 1325"),(" uPVCCLASS 2.5 SS", "SLS 1325"),("uPVC Drainage - fittings", "SLS 1325"),("uPVC Drainage (special) SS", "SLS 1286"),("Tube Well Pipe SS", "Non-Type"),("Irrigation Pipe SS", "Non-Type"),("CPVC", "IS : 15778"),</v>
+        <v>INSERT INTO plumgrades (plumGrade,plumStandard) VALUES("uPVC PNT 14", "SLS 147:2013 "),("uPVC PNT 14 - Fitting", "SLS 659:2015"),(" uPVC PNT 11", "SLS 147:2013 "),(" uPVC PNT 11 - Fitting", "SLS 659:2015"),(" uPVC PNT 12.5 - Fitting", "SLS 659:2016"),(" uPVC PNT 7", "SLS 147:2013 "),(" uPVC CLASS 4.0 ", "SLS 1325"),(" uPVCCLASS 2.5", "SLS 1325"),("uPVC Drainage - fittings", "SLS 1325"),("uPVC Drainage (special) SS", "SLS 1286"),("Tube Well Pipe SS", "Non-Type"),("Irrigation Pipe SS", "Non-Type"),("CPVC", "IS : 15778"),</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1914,10 +1966,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D14" si="0">_xlfn.CONCAT(""""&amp;B3&amp;"""")</f>
@@ -1940,7 +1992,7 @@
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1960,10 +2012,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1983,10 +2035,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" ref="D6" si="3">_xlfn.CONCAT(""""&amp;B6&amp;"""")</f>
@@ -2009,7 +2061,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2029,14 +2081,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>" uPVC CLASS 4.0 SS"</v>
+        <v>" uPVC CLASS 4.0 "</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2044,7 +2096,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
-        <v>(" uPVC CLASS 4.0 SS", "SLS 1325")</v>
+        <v>(" uPVC CLASS 4.0 ", "SLS 1325")</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2052,14 +2104,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>" uPVCCLASS 2.5 SS"</v>
+        <v>" uPVCCLASS 2.5"</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2067,7 +2119,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
-        <v>(" uPVCCLASS 2.5 SS", "SLS 1325")</v>
+        <v>(" uPVCCLASS 2.5", "SLS 1325")</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,10 +2127,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2098,10 +2150,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2124,7 +2176,7 @@
         <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2147,7 +2199,7 @@
         <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2167,10 +2219,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2212,7 +2264,7 @@
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2220,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
@@ -2240,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C7" si="0">_xlfn.CONCAT(""""&amp;B3&amp;"""")</f>
@@ -2256,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2272,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2288,7 +2340,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2304,7 +2356,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2721,7 +2773,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" ref="C20" si="2">_xlfn.CONCAT(""""&amp;B20&amp;"""")</f>
@@ -2737,7 +2789,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" ref="C21" si="4">_xlfn.CONCAT(""""&amp;B21&amp;"""")</f>
@@ -2881,7 +2933,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2897,7 +2949,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2913,7 +2965,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2929,7 +2981,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2945,7 +2997,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2961,7 +3013,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2977,7 +3029,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2993,7 +3045,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3009,7 +3061,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3025,7 +3077,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3041,7 +3093,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3057,7 +3109,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3073,7 +3125,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3089,7 +3141,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3105,7 +3157,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3121,7 +3173,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3137,7 +3189,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3153,7 +3205,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3169,7 +3221,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3188,10 +3240,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B51A4-0C2E-4883-BC0A-528D5C113E23}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,19 +3262,19 @@
         <v>64</v>
       </c>
       <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>177</v>
       </c>
-      <c r="D1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" t="s">
-        <v>179</v>
-      </c>
       <c r="F1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3249,8 +3301,8 @@
         <v>(1, 1, 2, 1, 2)</v>
       </c>
       <c r="H2" t="str" cm="1">
-        <f t="array" ref="H2">_xlfn.CONCAT("INSERT INTO plumfittinginfos (plumFittingId,plumBrandId,plumGradeId,plumSizeId,plumTypeId) VALUES",(TRANSPOSE(G2:G138)&amp;","))</f>
-        <v>INSERT INTO plumfittinginfos (plumFittingId,plumBrandId,plumGradeId,plumSizeId,plumTypeId) VALUES(1, 1, 2, 1, 2),(1, 1, 4, 2, 2),(1, 1, 4, 3, 2),(1, 1, 4, 4, 2),(1, 1, 4, 5, 2),(1, 1, 4, 6, 2),(1, 1, 4, 7, 2),(1, 1, 4, 8, 2),(1, 1, 4, 9, 2),(2, 1, 2, 1, 2),(2, 1, 4, 2, 2),(2, 1, 4, 3, 2),(2, 1, 4, 4, 2),(2, 1, 4, 5, 2),(2, 1, 4, 6, 2),(2, 1, 4, 7, 2),(2, 1, 4, 8, 2),(2, 1, 4, 9, 2),(3, 1, 2, 1, 2),(3, 1, 4, 2, 2),(3, 1, 4, 3, 2),(3, 1, 4, 4, 2),(3, 1, 4, 5, 2),(3, 1, 4, 6, 2),(3, 1, 4, 7, 2),(3, 1, 4, 8, 2),(3, 1, 4, 9, 2),(4, 1, 2, 1, 2),(4, 1, 4, 2, 2),(4, 1, 4, 3, 2),(4, 1, 4, 4, 2),(4, 1, 4, 5, 2),(4, 1, 4, 6, 2),(4, 1, 4, 7, 2),(4, 1, 4, 8, 2),(4, 1, 4, 9, 2),(5, 1, 2, 1, 2),(5, 1, 4, 2, 2),(5, 1, 4, 3, 2),(5, 1, 4, 4, 2),(5, 1, 4, 5, 2),(5, 1, 4, 6, 2),(5, 1, 4, 7, 2),(5, 1, 4, 8, 2),(5, 1, 4, 9, 2),(6, 1, 2, 1, 2),(6, 1, 4, 2, 2),(6, 1, 4, 3, 2),(6, 1, 4, 4, 2),(6, 1, 4, 5, 2),(6, 1, 4, 6, 2),(6, 1, 4, 7, 2),(6, 1, 4, 8, 2),(6, 1, 4, 9, 2),(7, 1, 2, 1, 2),(7, 1, 4, 2, 2),(7, 1, 4, 3, 2),(7, 1, 4, 4, 2),(7, 1, 4, 5, 2),(7, 1, 4, 6, 2),(7, 1, 4, 7, 2),(7, 1, 4, 8, 2),(7, 1, 4, 9, 2),(8, 1, 2, 1, 2),(8, 1, 4, 2, 2),(8, 1, 4, 3, 2),(8, 1, 4, 4, 2),(8, 1, 4, 5, 2),(8, 1, 4, 6, 2),(8, 1, 4, 7, 2),(8, 1, 4, 8, 2),(8, 1, 4, 9, 2),(9, 1, 2, 1, 2),(9, 1, 4, 2, 2),(9, 1, 4, 3, 2),(9, 1, 4, 4, 2),(9, 1, 4, 5, 2),(9, 1, 4, 6, 2),(10, 1, 4, 10, 2),(10, 1, 4, 11, 2),(10, 1, 4, 12, 2),(10, 1, 4, 13, 2),(10, 1, 4, 14, 2),(10, 1, 4, 15, 2),(10, 1, 4, 16, 2),(10, 1, 4, 17, 2),(10, 1, 4, 18, 2),(10, 1, 4, 19, 2),(10, 1, 4, 20, 2),(10, 1, 4, 21, 2),(10, 1, 4, 22, 2),(10, 1, 4, 23, 2),(10, 1, 4, 24, 2),(10, 1, 4, 25, 2),(10, 1, 4, 26, 2),(10, 1, 4, 27, 2),(10, 1, 4, 28, 2),(10, 1, 4, 29, 2),(10, 1, 4, 30, 2),(10, 1, 4, 31, 2),(10, 1, 4, 32, 2),(11, 1, 4, 10, 2),(11, 1, 4, 11, 2),(11, 1, 4, 12, 2),(11, 1, 4, 13, 2),(11, 1, 4, 14, 2),(11, 1, 4, 15, 2),(11, 1, 4, 16, 2),(11, 1, 4, 17, 2),(11, 1, 4, 18, 2),(11, 1, 4, 19, 2),(11, 1, 4, 20, 2),(11, 1, 4, 21, 2),(11, 1, 4, 22, 2),(11, 1, 4, 23, 2),(11, 1, 4, 24, 2),(11, 1, 4, 25, 2),(11, 1, 4, 26, 2),(11, 1, 4, 27, 2),(11, 1, 4, 28, 2),(11, 1, 4, 29, 2),(11, 1, 4, 30, 2),(11, 1, 4, 31, 2),(11, 1, 4, 32, 2),(12, 1, 4, 10, 2),(13, 1, 4, 11, 2),(14, 1, 2, 1, 2),(15, 1, 2, 1, 2),(16, 1, 2, 1, 2),(17, 1, 2, 1, 2),(18, 1, 2, 1, 2),(19, 1, 5, 10, 2),(19, 1, 5, 11, 2),(20, 1, 5, 10, 2),(21, 1, 2, 1, 2),(21, 1, 4, 2, 2),(21, 1, 4, 3, 2),</v>
+        <f t="array" ref="H2">_xlfn.CONCAT("INSERT INTO plumfittinginfos (plumFittingId,plumBrandId,plumGradeId,plumSizeId,plumTypeId) VALUES",(TRANSPOSE(G2:G176)&amp;","))</f>
+        <v>INSERT INTO plumfittinginfos (plumFittingId,plumBrandId,plumGradeId,plumSizeId,plumTypeId) VALUES(1, 1, 2, 1, 2),(1, 1, 4, 2, 2),(1, 1, 4, 3, 2),(1, 1, 4, 4, 2),(1, 1, 4, 5, 2),(1, 1, 4, 6, 2),(1, 1, 4, 7, 2),(1, 1, 4, 8, 2),(1, 1, 4, 9, 2),(2, 1, 2, 1, 2),(2, 1, 4, 2, 2),(2, 1, 4, 3, 2),(2, 1, 4, 4, 2),(2, 1, 4, 5, 2),(2, 1, 4, 6, 2),(2, 1, 4, 7, 2),(2, 1, 4, 8, 2),(2, 1, 4, 9, 2),(3, 1, 2, 1, 2),(3, 1, 4, 2, 2),(3, 1, 4, 3, 2),(3, 1, 4, 4, 2),(3, 1, 4, 5, 2),(3, 1, 4, 6, 2),(3, 1, 4, 7, 2),(3, 1, 4, 8, 2),(3, 1, 4, 9, 2),(4, 1, 2, 1, 2),(4, 1, 4, 2, 2),(4, 1, 4, 3, 2),(4, 1, 4, 4, 2),(4, 1, 4, 5, 2),(4, 1, 4, 6, 2),(4, 1, 4, 7, 2),(4, 1, 4, 8, 2),(4, 1, 4, 9, 2),(5, 1, 2, 1, 2),(5, 1, 4, 2, 2),(5, 1, 4, 3, 2),(5, 1, 4, 4, 2),(5, 1, 4, 5, 2),(5, 1, 4, 6, 2),(5, 1, 4, 7, 2),(5, 1, 4, 8, 2),(5, 1, 4, 9, 2),(6, 1, 2, 1, 2),(6, 1, 4, 2, 2),(6, 1, 4, 3, 2),(6, 1, 4, 4, 2),(6, 1, 4, 5, 2),(6, 1, 4, 6, 2),(6, 1, 4, 7, 2),(6, 1, 4, 8, 2),(6, 1, 4, 9, 2),(7, 1, 2, 1, 2),(7, 1, 4, 2, 2),(7, 1, 4, 3, 2),(7, 1, 4, 4, 2),(7, 1, 4, 5, 2),(7, 1, 4, 6, 2),(7, 1, 4, 7, 2),(7, 1, 4, 8, 2),(7, 1, 4, 9, 2),(8, 1, 2, 1, 2),(8, 1, 4, 2, 2),(8, 1, 4, 3, 2),(8, 1, 4, 4, 2),(8, 1, 4, 5, 2),(8, 1, 4, 6, 2),(8, 1, 4, 7, 2),(8, 1, 4, 8, 2),(8, 1, 4, 9, 2),(9, 1, 2, 1, 2),(9, 1, 4, 2, 2),(9, 1, 4, 3, 2),(9, 1, 4, 4, 2),(9, 1, 4, 5, 2),(9, 1, 4, 6, 2),(10, 1, 4, 10, 2),(10, 1, 4, 11, 2),(10, 1, 4, 12, 2),(10, 1, 4, 13, 2),(10, 1, 4, 14, 2),(10, 1, 4, 15, 2),(10, 1, 4, 16, 2),(10, 1, 4, 17, 2),(10, 1, 4, 18, 2),(10, 1, 4, 19, 2),(10, 1, 4, 20, 2),(10, 1, 4, 21, 2),(10, 1, 4, 22, 2),(10, 1, 4, 23, 2),(10, 1, 4, 24, 2),(10, 1, 4, 25, 2),(10, 1, 4, 26, 2),(10, 1, 4, 27, 2),(10, 1, 4, 28, 2),(10, 1, 4, 29, 2),(10, 1, 4, 30, 2),(10, 1, 4, 31, 2),(10, 1, 4, 32, 2),(11, 1, 4, 10, 2),(11, 1, 4, 11, 2),(11, 1, 4, 12, 2),(11, 1, 4, 13, 2),(11, 1, 4, 14, 2),(11, 1, 4, 15, 2),(11, 1, 4, 16, 2),(11, 1, 4, 17, 2),(11, 1, 4, 18, 2),(11, 1, 4, 19, 2),(11, 1, 4, 20, 2),(11, 1, 4, 21, 2),(11, 1, 4, 22, 2),(11, 1, 4, 23, 2),(11, 1, 4, 24, 2),(11, 1, 4, 25, 2),(11, 1, 4, 26, 2),(11, 1, 4, 27, 2),(11, 1, 4, 28, 2),(11, 1, 4, 29, 2),(11, 1, 4, 30, 2),(11, 1, 4, 31, 2),(11, 1, 4, 32, 2),(12, 1, 4, 10, 2),(13, 1, 4, 11, 2),(14, 1, 2, 1, 2),(15, 1, 2, 1, 2),(16, 1, 2, 1, 2),(17, 1, 2, 1, 2),(18, 1, 2, 1, 2),(19, 1, 5, 10, 2),(19, 1, 5, 11, 2),(20, 1, 5, 10, 2),(21, 1, 2, 1, 2),(21, 1, 4, 2, 2),(21, 1, 4, 3, 2),(9, 1, 9, 4, 4),(9, 1, 9, 5, 4),(9, 1, 9, 6, 4),(9, 1, 9, 9, 4),(6, 1, 9, 4, 4),(6, 1, 9, 5, 4),(6, 1, 9, 6, 4),(6, 1, 9, 9, 4),(5, 1, 9, 4, 4),(5, 1, 9, 5, 4),(5, 1, 9, 6, 4),(5, 1, 9, 9, 4),(22, 1, 9, 4, 4),(22, 1, 9, 5, 4),(22, 1, 9, 9, 4),(23, 1, 9, 4, 4),(23, 1, 9, 5, 4),(23, 1, 9, 6, 4),(23, 1, 9, 9, 4),(24, 1, 9, 4, 4),(24, 1, 9, 5, 4),(24, 1, 9, 6, 4),(24, 1, 9, 9, 4),(25, 1, 9, 4, 4),(25, 1, 9, 5, 4),(25, 1, 9, 6, 4),(25, 1, 9, 9, 4),(26, 1, 9, 4, 4),(26, 1, 9, 5, 4),(26, 1, 9, 6, 4),(26, 1, 9, 9, 4),(27, 1, 9, 4, 4),(27, 1, 9, 5, 4),(27, 1, 9, 9, 4),(28, 1, 9, 4, 4),(28, 1, 9, 5, 4),(28, 1, 9, 6, 4),(28, 1, 9, 9, 4),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6345,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G138" si="2">_xlfn.CONCAT( "(",B131,", ", C131,", ", D131,", ", E131,", ", F131,")")</f>
+        <f t="shared" ref="G131:G176" si="2">_xlfn.CONCAT( "(",B131,", ", C131,", ", D131,", ", E131,", ", F131,")")</f>
         <v>(17, 1, 2, 1, 2)</v>
       </c>
     </row>
@@ -6515,6 +6567,1998 @@
       <c r="G138" t="str">
         <f t="shared" si="2"/>
         <v>(21, 1, 4, 3, 2)</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="2"/>
+        <v>(9, 1, 9, 4, 4)</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>9</v>
+      </c>
+      <c r="E140">
+        <v>5</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="2"/>
+        <v>(9, 1, 9, 5, 4)</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>9</v>
+      </c>
+      <c r="E141">
+        <v>6</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="2"/>
+        <v>(9, 1, 9, 6, 4)</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>9</v>
+      </c>
+      <c r="E142">
+        <v>9</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="2"/>
+        <v>(9, 1, 9, 9, 4)</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>9</v>
+      </c>
+      <c r="E143">
+        <v>4</v>
+      </c>
+      <c r="F143">
+        <v>4</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="2"/>
+        <v>(6, 1, 9, 4, 4)</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>9</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="2"/>
+        <v>(6, 1, 9, 5, 4)</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>9</v>
+      </c>
+      <c r="E145">
+        <v>6</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="2"/>
+        <v>(6, 1, 9, 6, 4)</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
+      </c>
+      <c r="E146">
+        <v>9</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="2"/>
+        <v>(6, 1, 9, 9, 4)</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>9</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+      <c r="F147">
+        <v>4</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="2"/>
+        <v>(5, 1, 9, 4, 4)</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>5</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="2"/>
+        <v>(5, 1, 9, 5, 4)</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <v>6</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="2"/>
+        <v>(5, 1, 9, 6, 4)</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>9</v>
+      </c>
+      <c r="E150">
+        <v>9</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="2"/>
+        <v>(5, 1, 9, 9, 4)</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>22</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>9</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="2"/>
+        <v>(22, 1, 9, 4, 4)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>22</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>9</v>
+      </c>
+      <c r="E152">
+        <v>5</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="2"/>
+        <v>(22, 1, 9, 5, 4)</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>22</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>9</v>
+      </c>
+      <c r="E153">
+        <v>9</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="2"/>
+        <v>(22, 1, 9, 9, 4)</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>23</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>9</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="2"/>
+        <v>(23, 1, 9, 4, 4)</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>23</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>9</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="2"/>
+        <v>(23, 1, 9, 5, 4)</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>23</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>9</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="2"/>
+        <v>(23, 1, 9, 6, 4)</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>23</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>9</v>
+      </c>
+      <c r="E157">
+        <v>9</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="2"/>
+        <v>(23, 1, 9, 9, 4)</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>24</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>9</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="2"/>
+        <v>(24, 1, 9, 4, 4)</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>24</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>9</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="2"/>
+        <v>(24, 1, 9, 5, 4)</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>24</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>9</v>
+      </c>
+      <c r="E160">
+        <v>6</v>
+      </c>
+      <c r="F160">
+        <v>4</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="2"/>
+        <v>(24, 1, 9, 6, 4)</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>24</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>9</v>
+      </c>
+      <c r="E161">
+        <v>9</v>
+      </c>
+      <c r="F161">
+        <v>4</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="2"/>
+        <v>(24, 1, 9, 9, 4)</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>25</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>9</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+      <c r="F162">
+        <v>4</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="2"/>
+        <v>(25, 1, 9, 4, 4)</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>25</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>9</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+      <c r="F163">
+        <v>4</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="2"/>
+        <v>(25, 1, 9, 5, 4)</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>25</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>9</v>
+      </c>
+      <c r="E164">
+        <v>6</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="2"/>
+        <v>(25, 1, 9, 6, 4)</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>25</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>9</v>
+      </c>
+      <c r="E165">
+        <v>9</v>
+      </c>
+      <c r="F165">
+        <v>4</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="2"/>
+        <v>(25, 1, 9, 9, 4)</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>26</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+      <c r="F166">
+        <v>4</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="2"/>
+        <v>(26, 1, 9, 4, 4)</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>26</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="2"/>
+        <v>(26, 1, 9, 5, 4)</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>26</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>9</v>
+      </c>
+      <c r="E168">
+        <v>6</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="2"/>
+        <v>(26, 1, 9, 6, 4)</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>26</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>9</v>
+      </c>
+      <c r="E169">
+        <v>9</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="2"/>
+        <v>(26, 1, 9, 9, 4)</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>27</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>9</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
+      <c r="F170">
+        <v>4</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="2"/>
+        <v>(27, 1, 9, 4, 4)</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>27</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>9</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="2"/>
+        <v>(27, 1, 9, 5, 4)</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>27</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>9</v>
+      </c>
+      <c r="E172">
+        <v>9</v>
+      </c>
+      <c r="F172">
+        <v>4</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="2"/>
+        <v>(27, 1, 9, 9, 4)</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>28</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="2"/>
+        <v>(28, 1, 9, 4, 4)</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>28</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>9</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="2"/>
+        <v>(28, 1, 9, 5, 4)</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>28</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>9</v>
+      </c>
+      <c r="E175">
+        <v>6</v>
+      </c>
+      <c r="F175">
+        <v>4</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="2"/>
+        <v>(28, 1, 9, 6, 4)</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>28</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>9</v>
+      </c>
+      <c r="E176">
+        <v>9</v>
+      </c>
+      <c r="F176">
+        <v>4</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="2"/>
+        <v>(28, 1, 9, 9, 4)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6067A96B-A56E-4CC3-9E7D-BF79F93DE18D}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
+        <v>"PE - Plain Ended"</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>_xlfn.CONCAT( "(",C2,")")</f>
+        <v>("PE - Plain Ended")</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2">_xlfn.CONCAT("INSERT INTO plumpipeendtypes (plumPipeEndType) VALUES",(TRANSPOSE(D2:D3)&amp;","))</f>
+        <v>INSERT INTO plumpipeendtypes (plumPipeEndType) VALUES("PE - Plain Ended"),("SS - Solvent Socketed"),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>_xlfn.CONCAT(""""&amp;B3&amp;"""")</f>
+        <v>"SS - Solvent Socketed"</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>_xlfn.CONCAT( "(",C3,")")</f>
+        <v>("SS - Solvent Socketed")</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD72405-4BAA-4BE0-9E9A-35EF3BE8961C}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <f>G2*3.28</f>
+        <v>13.12</v>
+      </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT( "(",B2,", ", C2,", ", D2,", ", E2,", ", F2,", ", G2,", ", H2,")")</f>
+        <v>(1, 1, 1, 1, 1, 4, 13.12)</v>
+      </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2">_xlfn.CONCAT("INSERT INTO plumpipeinfos (plumGradeId,plumSizeId,plumBrandId,plumTypeId,plumPipeEndType,PlumPipeLengthMetric,plumPipeLengthImperial) VALUES",(TRANSPOSE(I2:I32)&amp;","))</f>
+        <v>INSERT INTO plumpipeinfos (plumGradeId,plumSizeId,plumBrandId,plumTypeId,plumPipeEndType,PlumPipeLengthMetric,plumPipeLengthImperial) VALUES(1, 1, 1, 1, 1, 4, 13.12),(3, 2, 1, 1, 1, 4, 13.12),(3, 3, 1, 1, 1, 4, 13.12),(3, 4, 1, 1, 1, 4, 13.12),(3, 5, 1, 1, 1, 4, 13.12),(3, 6, 1, 1, 1, 4, 13.12),(3, 7, 1, 1, 1, 4, 13.12),(3, 8, 1, 1, 1, 4, 13.12),(3, 9, 1, 1, 1, 6, 19.68),(6, 2, 1, 1, 1, 4, 13.12),(6, 3, 1, 1, 1, 4, 13.12),(6, 4, 1, 1, 1, 4, 13.12),(6, 5, 1, 1, 1, 4, 13.12),(6, 6, 1, 1, 1, 4, 13.12),(6, 7, 1, 1, 1, 4, 13.12),(6, 8, 1, 1, 1, 4, 13.12),(6, 9, 1, 1, 1, 6, 19.68),(7, 5, 1, 3, 1, 4, 13.12),(7, 6, 1, 3, 1, 4, 13.12),(7, 7, 1, 3, 1, 4, 13.12),(7, 8, 1, 3, 1, 4, 13.12),(7, 9, 1, 3, 1, 6, 19.68),(7, 33, 1, 3, 1, 6, 19.68),(8, 9, 1, 3, 2, 6, 19.68),(8, 33, 1, 3, 2, 6, 19.68),(7, 5, 1, 3, 2, 4, 13.12),(7, 6, 1, 3, 2, 4, 13.12),(7, 7, 1, 3, 2, 4, 13.12),(7, 8, 1, 3, 2, 4, 13.12),(7, 9, 1, 3, 2, 6, 19.68),(7, 33, 1, 3, 2, 6, 19.68),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H32" si="0">G3*3.28</f>
+        <v>13.12</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I32" si="1">_xlfn.CONCAT( "(",B3,", ", C3,", ", D3,", ", E3,", ", F3,", ", G3,", ", H3,")")</f>
+        <v>(3, 2, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>(3, 3, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>(3, 4, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>(3, 5, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>(3, 6, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>(3, 7, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>(3, 8, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>19.68</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>(3, 9, 1, 1, 1, 6, 19.68)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>(6, 2, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>(6, 3, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>(6, 4, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>(6, 5, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>(6, 6, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>(6, 7, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>(6, 8, 1, 1, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>19.68</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>(6, 9, 1, 1, 1, 6, 19.68)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 5, 1, 3, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 6, 1, 3, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 7, 1, 3, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 8, 1, 3, 1, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>19.68</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 9, 1, 3, 1, 6, 19.68)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>19.68</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 33, 1, 3, 1, 6, 19.68)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>19.68</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>(8, 9, 1, 3, 2, 6, 19.68)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>19.68</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>(8, 33, 1, 3, 2, 6, 19.68)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 5, 1, 3, 2, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 6, 1, 3, 2, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 7, 1, 3, 2, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>13.12</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 8, 1, 3, 2, 4, 13.12)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>19.68</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 9, 1, 3, 2, 6, 19.68)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>19.68</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, 33, 1, 3, 2, 6, 19.68)</v>
       </c>
     </row>
   </sheetData>
